--- a/data/trans_bre/P16A_n_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R3-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.108772644788037</v>
+        <v>0.157637667186163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.322002801547111</v>
+        <v>4.016195014647347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.381511375782051</v>
+        <v>2.624688550269847</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.013457109827815</v>
+        <v>9.069221236478043</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.006037380229397089</v>
+        <v>0.03242471660942167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7309381382081778</v>
+        <v>0.6869884081558403</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3784783309839758</v>
+        <v>0.4047155770394049</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6173986124539717</v>
+        <v>0.6317989797227135</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.229732533382689</v>
+        <v>3.238531113949853</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.887412733027332</v>
+        <v>8.434129988594826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.488586815409265</v>
+        <v>7.316550531790178</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.60591158673616</v>
+        <v>15.61336030178101</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.357955480993638</v>
+        <v>1.374164538166682</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.593728173246542</v>
+        <v>2.459455273539429</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.965459029779374</v>
+        <v>1.869472660810379</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.477525432611917</v>
+        <v>1.533646029492379</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.561186864898423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.222757687079084</v>
+        <v>2.222757687079083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.009579849470684</v>
@@ -749,7 +749,7 @@
         <v>2.165964302595162</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6180926163054387</v>
+        <v>0.6180926163054385</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001977477741720251</v>
+        <v>0.01880037672273016</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1303026082312518</v>
+        <v>0.151098080744822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7346995652786448</v>
+        <v>0.7581822495848981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.178757637924039</v>
+        <v>1.085081807089899</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06207717292016978</v>
+        <v>0.004499937773332954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09093743389624021</v>
+        <v>0.111520976756414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6792175996949211</v>
+        <v>0.597019687151685</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.285481507911501</v>
+        <v>0.2479671941024236</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.522737536552683</v>
+        <v>1.389517544903541</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.484081633496492</v>
+        <v>1.537567356621622</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.348648402837175</v>
+        <v>2.446374763646062</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.261792625793196</v>
+        <v>3.256240802225133</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.528240674319372</v>
+        <v>3.375005724413617</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.8447257767171</v>
+        <v>4.017285642077771</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.248716154465044</v>
+        <v>5.265145800723401</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.058396308020413</v>
+        <v>1.066210647189968</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.8388767437372893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.383601408006587</v>
+        <v>1.383601408006588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.7258189547475967</v>
@@ -849,7 +849,7 @@
         <v>1.29862936523364</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5649846108015772</v>
+        <v>0.5649846108015775</v>
       </c>
     </row>
     <row r="11">
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.57690429186887</v>
+        <v>-1.614917454898175</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.662863955525746</v>
+        <v>-1.450938927171493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3360712014618236</v>
+        <v>-0.2693945999202971</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2824524543485705</v>
+        <v>-0.03545978184207922</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.7469982300068289</v>
+        <v>-0.6927440635046024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.696412861501031</v>
+        <v>-0.5877117144603072</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1103549426279262</v>
+        <v>-0.03891459966389453</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +890,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1540565021844157</v>
+        <v>0.20662657521668</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.489665938663455</v>
+        <v>2.49752666947861</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.324805753432647</v>
+        <v>2.366245512952278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.999643478926631</v>
+        <v>3.272211613334287</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="n">
-        <v>5.895363910961064</v>
-      </c>
+      <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>9.739362681124234</v>
+        <v>9.912424412566752</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.655018730477096</v>
+        <v>1.927291150697056</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +931,7 @@
         <v>2.631585870183023</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.791909515563902</v>
+        <v>4.791909515563903</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7413116424889485</v>
@@ -945,7 +943,7 @@
         <v>1.579812671296384</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.007723793084414</v>
+        <v>1.007723793084415</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4370385055287844</v>
+        <v>0.4331567837319616</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.248731132950036</v>
+        <v>2.223133168945415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.82889153521336</v>
+        <v>1.856338219699311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.686498735443173</v>
+        <v>3.745719875719941</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2314395544178215</v>
+        <v>0.2392423191059002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.012452480812011</v>
+        <v>1.027901598438634</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9279546428453099</v>
+        <v>0.9486598671585694</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7132697074590296</v>
+        <v>0.7149922966912483</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.856095240222057</v>
+        <v>1.791963914232418</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.146857413599115</v>
+        <v>4.062176066415164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.434101166229954</v>
+        <v>3.556748386269336</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.718741797730457</v>
+        <v>5.724792053604371</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.57881662039282</v>
+        <v>1.563372820555463</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.828715490681335</v>
+        <v>2.868114352500471</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.59869612455652</v>
+        <v>2.647942855136309</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.345304861528924</v>
+        <v>1.356736194323812</v>
       </c>
     </row>
     <row r="16">
